--- a/results/mp/logistic/corona/confidence/42/0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,42 +52,39 @@
     <t>died</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -97,190 +94,214 @@
     <t>stop</t>
   </si>
   <si>
+    <t>on</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
+    <t>boost</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>ready</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>growth</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
     <t>your</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>for</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>are</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
 </sst>
 </file>
@@ -638,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +667,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,16 +749,16 @@
         <v>79</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>0.9130434782608695</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -749,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -757,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>0.9083333333333333</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -799,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -828,16 +849,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +878,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6153846153846154</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -899,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,13 +928,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5263157894736842</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +978,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.52</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,7 +1028,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C9">
         <v>17</v>
@@ -1025,31 +1046,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L9">
+        <v>95</v>
+      </c>
+      <c r="M9">
+        <v>95</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>17</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L9">
-        <v>15</v>
-      </c>
-      <c r="M9">
-        <v>15</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,38 +1078,38 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L10">
         <v>15</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>15</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>15</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10">
-        <v>0.8302872062663186</v>
-      </c>
-      <c r="L10">
-        <v>318</v>
-      </c>
-      <c r="M10">
-        <v>318</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -1099,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,37 +1128,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4722222222222222</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>17</v>
       </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>19</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8205128205128205</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>313</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>313</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4594594594594595</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.8181818181818182</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4285714285714285</v>
+        <v>0.3682170542635659</v>
       </c>
       <c r="C13">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="D13">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>108</v>
+        <v>326</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.8125</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L13">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1278,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.392156862745098</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.8103448275862069</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1328,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3565891472868217</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C15">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.7804878048780488</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L15">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="M15">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1378,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3050847457627119</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1428,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.28</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.76875</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1478,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2727272727272727</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.7735849056603774</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L18">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,49 +1528,49 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2080536912751678</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="C19">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>55</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>305</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19">
+        <v>0.7578125</v>
+      </c>
+      <c r="L19">
+        <v>97</v>
+      </c>
+      <c r="M19">
+        <v>97</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>31</v>
-      </c>
-      <c r="D19">
-        <v>31</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>118</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19">
-        <v>0.76875</v>
-      </c>
-      <c r="L19">
-        <v>123</v>
-      </c>
-      <c r="M19">
-        <v>123</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1578,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1388888888888889</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>310</v>
+        <v>231</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.7535211267605634</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1599,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,37 +1628,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.07142857142857142</v>
+        <v>0.01146384479717813</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>234</v>
+        <v>1121</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1657,37 +1678,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01014370245139476</v>
+        <v>0.009716941275876637</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="F22">
-        <v>0.65</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.7142857142857143</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,37 +1728,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.009987113402061855</v>
+        <v>0.007015902712815715</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="F23">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3073</v>
+        <v>2123</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.7037037037037037</v>
+        <v>0.7</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1749,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,49 +1778,49 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.008699434536755112</v>
+        <v>0.006962576153176675</v>
       </c>
       <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>0.41</v>
+      </c>
+      <c r="F24">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2282</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="L24">
+        <v>43</v>
+      </c>
+      <c r="M24">
+        <v>43</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>20</v>
-      </c>
-      <c r="D24">
-        <v>30</v>
-      </c>
-      <c r="E24">
-        <v>0.33</v>
-      </c>
-      <c r="F24">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2279</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="L24">
-        <v>24</v>
-      </c>
-      <c r="M24">
-        <v>24</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1807,28 +1828,28 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005258033106134372</v>
+        <v>0.006131010003226848</v>
       </c>
       <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
         <v>27</v>
       </c>
-      <c r="D25">
-        <v>57</v>
-      </c>
       <c r="E25">
-        <v>0.53</v>
+        <v>0.3</v>
       </c>
       <c r="F25">
-        <v>0.47</v>
+        <v>0.7</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>5108</v>
+        <v>3080</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K25">
         <v>0.6818181818181818</v>
@@ -1857,37 +1878,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005023547880690738</v>
+        <v>0.005449591280653951</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E26">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F26">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3169</v>
+        <v>5110</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.6808510638297872</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1899,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1907,37 +1928,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.003716608594657375</v>
+        <v>0.004888268156424581</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E27">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="F27">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>4289</v>
+        <v>4275</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.6785714285714286</v>
+        <v>0.675</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1949,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1957,37 +1978,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.003628300745817375</v>
+        <v>0.004709576138147566</v>
       </c>
       <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>0.52</v>
+      </c>
+      <c r="F28">
+        <v>0.48</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3170</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L28">
         <v>18</v>
       </c>
-      <c r="D28">
-        <v>53</v>
-      </c>
-      <c r="E28">
-        <v>0.66</v>
-      </c>
-      <c r="F28">
-        <v>0.34</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>4943</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28">
-        <v>0.66</v>
-      </c>
-      <c r="L28">
-        <v>33</v>
-      </c>
       <c r="M28">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1999,21 +2020,45 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.003631961259079903</v>
+      </c>
+      <c r="C29">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>58</v>
+      </c>
+      <c r="E29">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F29">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>4938</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.6511627906976745</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2025,21 +2070,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K30">
         <v>0.65</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2051,12 +2096,12 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K31">
         <v>0.6363636363636364</v>
@@ -2082,16 +2127,16 @@
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.6264705882352941</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L32">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2103,21 +2148,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.6108786610878661</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L33">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2129,21 +2174,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>93</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>0.6033898305084746</v>
+        <v>0.6</v>
       </c>
       <c r="L34">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2155,21 +2200,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>117</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K35">
-        <v>0.5846153846153846</v>
+        <v>0.5898305084745763</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2181,12 +2226,12 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>27</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K36">
         <v>0.5833333333333334</v>
@@ -2212,16 +2257,16 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K37">
-        <v>0.5531914893617021</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L37">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="M37">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2233,21 +2278,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K38">
-        <v>0.5454545454545454</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2259,21 +2304,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K39">
-        <v>0.5357142857142857</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2285,21 +2330,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K40">
-        <v>0.5280898876404494</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L40">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M40">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2316,16 +2361,16 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L41">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2337,21 +2382,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2363,21 +2408,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K43">
-        <v>0.4444444444444444</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2389,21 +2434,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K44">
-        <v>0.4285714285714285</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2415,21 +2460,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K45">
-        <v>0.3333333333333333</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2441,21 +2486,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K46">
-        <v>0.3137254901960784</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2467,47 +2512,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K47">
-        <v>0.2758620689655172</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K48">
-        <v>0.2465753424657534</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2519,21 +2564,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K49">
-        <v>0.1805555555555556</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2545,47 +2590,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K50">
-        <v>0.03007518796992481</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L50">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N50">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>1161</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K51">
-        <v>0.02925045703839122</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2597,267 +2642,397 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>531</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K52">
-        <v>0.01068510370835952</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N52">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1574</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K53">
-        <v>0.01051840721262209</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="L53">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M53">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N53">
-        <v>0.72</v>
+        <v>0.92</v>
       </c>
       <c r="O53">
-        <v>0.28</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>2634</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K54">
-        <v>0.01012461059190031</v>
+        <v>0.02385321100917431</v>
       </c>
       <c r="L54">
         <v>13</v>
       </c>
       <c r="M54">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N54">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
       <c r="O54">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>1271</v>
+        <v>532</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K55">
-        <v>0.007521938988717091</v>
+        <v>0.01567749160134379</v>
       </c>
       <c r="L55">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N55">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O55">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>2375</v>
+        <v>879</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="K56">
-        <v>0.007030936118923263</v>
+        <v>0.01443695861405197</v>
       </c>
       <c r="L56">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="N56">
-        <v>0.66</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O56">
-        <v>0.34</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>4943</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K57">
-        <v>0.006155108740254411</v>
+        <v>0.01318458417849899</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N57">
-        <v>0.65</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O57">
-        <v>0.35</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>2422</v>
+        <v>973</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="K58">
-        <v>0.005838847800700661</v>
+        <v>0.01126126126126126</v>
       </c>
       <c r="L58">
         <v>30</v>
       </c>
       <c r="M58">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="N58">
-        <v>0.53</v>
+        <v>0.77</v>
       </c>
       <c r="O58">
-        <v>0.47</v>
+        <v>0.23</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>5108</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="K59">
-        <v>0.005520169851380042</v>
+        <v>0.01070528967254408</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N59">
-        <v>0.35</v>
+        <v>0.74</v>
       </c>
       <c r="O59">
-        <v>0.65</v>
+        <v>0.26</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>2342</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="K60">
-        <v>0.005333951762523191</v>
+        <v>0.01018010963194988</v>
       </c>
       <c r="L60">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N60">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="O60">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>4289</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K61">
+        <v>0.008213552361396304</v>
+      </c>
+      <c r="L61">
+        <v>20</v>
+      </c>
+      <c r="M61">
+        <v>30</v>
+      </c>
+      <c r="N61">
+        <v>0.67</v>
+      </c>
+      <c r="O61">
+        <v>0.33</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K62">
+        <v>0.008035355564483728</v>
+      </c>
+      <c r="L62">
+        <v>40</v>
+      </c>
+      <c r="M62">
+        <v>58</v>
+      </c>
+      <c r="N62">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O62">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63">
+        <v>0.007429765498026469</v>
+      </c>
+      <c r="L63">
+        <v>32</v>
+      </c>
+      <c r="M63">
+        <v>53</v>
+      </c>
+      <c r="N63">
+        <v>0.6</v>
+      </c>
+      <c r="O63">
+        <v>0.4</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K64">
+        <v>0.006688963210702341</v>
+      </c>
+      <c r="L64">
+        <v>16</v>
+      </c>
+      <c r="M64">
+        <v>18</v>
+      </c>
+      <c r="N64">
+        <v>0.89</v>
+      </c>
+      <c r="O64">
+        <v>0.11</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K61">
-        <v>0.005023547880690738</v>
-      </c>
-      <c r="L61">
+      <c r="K65">
+        <v>0.005255985984037376</v>
+      </c>
+      <c r="L65">
+        <v>27</v>
+      </c>
+      <c r="M65">
+        <v>55</v>
+      </c>
+      <c r="N65">
+        <v>0.49</v>
+      </c>
+      <c r="O65">
+        <v>0.51</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K66">
+        <v>0.005021971123666039</v>
+      </c>
+      <c r="L66">
         <v>16</v>
       </c>
-      <c r="M61">
-        <v>32</v>
-      </c>
-      <c r="N61">
-        <v>0.5</v>
-      </c>
-      <c r="O61">
-        <v>0.5</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>3169</v>
+      <c r="M66">
+        <v>31</v>
+      </c>
+      <c r="N66">
+        <v>0.52</v>
+      </c>
+      <c r="O66">
+        <v>0.48</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>3170</v>
       </c>
     </row>
   </sheetData>
